--- a/data_selection/result/地区生产总值-中山-解释变量v2-先行v2.xlsx
+++ b/data_selection/result/地区生产总值-中山-解释变量v2-先行v2.xlsx
@@ -758,42 +758,42 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>工业销售产值+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>大型企业+EX_ST_55_ZYCS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>股份制企业+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>商品房销售额+万元+EX_ST_52_XFYTZ</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>出口产品交货值+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>按税种分-海关代征税+EX_ST_53_SS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>商品房销售额+万元+EX_ST_52_XFYTZ</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>货运量+万吨+EX_ST_58_JTYD</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>股份制企业+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>工业用电累计增长+EX_ST_30_QSHYD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>出口产品交货值+EX_ST_55_ZYCS</t>
         </is>
       </c>
     </row>
@@ -831,28 +831,28 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -871,24 +871,24 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L3" t="n">
         <v>5.7</v>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N3" t="n">
         <v>101.1093834623</v>
       </c>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="Q3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
         <v>4.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -909,24 +909,24 @@
         <v>4.7205352247</v>
       </c>
       <c r="K4" t="n">
+        <v>5.0683544304</v>
+      </c>
+      <c r="L4" t="n">
         <v>7.7</v>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
+        <v>12.5734177215</v>
+      </c>
+      <c r="N4" t="n">
         <v>74.7083630347</v>
       </c>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>5.0683544304</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12.5734177215</v>
-      </c>
-      <c r="Q4" t="n">
+        <v>2.4367088608</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
         <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.4367088608</v>
       </c>
     </row>
     <row r="5">
@@ -953,24 +953,24 @@
         <v>3.1346050444</v>
       </c>
       <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
         <v>6.4</v>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="N5" t="n">
         <v>64.8597043828</v>
       </c>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
         <v>3.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -999,24 +999,24 @@
         <v>2.2167797848</v>
       </c>
       <c r="K6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L6" t="n">
         <v>6.4</v>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="N6" t="n">
         <v>37.6967099582</v>
       </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
         <v>4.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.4</v>
       </c>
     </row>
     <row r="7">
@@ -1049,28 +1049,28 @@
         <v>1.4363926504</v>
       </c>
       <c r="K7" t="n">
+        <v>8.6392405063</v>
+      </c>
+      <c r="L7" t="n">
         <v>9.2088607595</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
+        <v>7.7848101266</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.018987341799999</v>
+      </c>
+      <c r="P7" t="n">
         <v>14.8292188028</v>
       </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>-2.6497384051</v>
       </c>
-      <c r="O7" t="n">
-        <v>8.6392405063</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7.7848101266</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>10.5104041462</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9.018987341799999</v>
       </c>
     </row>
     <row r="8">
@@ -1107,28 +1107,28 @@
         <v>-2.6497384051</v>
       </c>
       <c r="K8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L8" t="n">
         <v>8.959487534600001</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>8.7647160665</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="P8" t="n">
         <v>19.7832077228</v>
       </c>
-      <c r="M8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>-4.2461807664</v>
       </c>
-      <c r="O8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>8.7647160665</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>9.169067168</v>
-      </c>
-      <c r="R8" t="n">
-        <v>11.6</v>
       </c>
     </row>
     <row r="9">
@@ -1165,28 +1165,28 @@
         <v>-4.2461807664</v>
       </c>
       <c r="K9" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L9" t="n">
         <v>9.155844155800001</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
+        <v>8.8636363636</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="P9" t="n">
         <v>21.8960462721</v>
       </c>
-      <c r="M9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>-5.6172136209</v>
       </c>
-      <c r="O9" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8.8636363636</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>9.547923815900001</v>
-      </c>
-      <c r="R9" t="n">
-        <v>11.3</v>
       </c>
     </row>
     <row r="10">
@@ -1223,28 +1223,28 @@
         <v>-0.5225638672</v>
       </c>
       <c r="K10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L10" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="P10" t="n">
         <v>18.9002899039</v>
       </c>
-      <c r="M10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
         <v>-3.7051569144</v>
       </c>
-      <c r="O10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>7.9783130841</v>
-      </c>
-      <c r="R10" t="n">
-        <v>11.7</v>
       </c>
     </row>
     <row r="11">
@@ -1281,28 +1281,28 @@
         <v>-3.7051569144</v>
       </c>
       <c r="K11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.1</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P11" t="n">
         <v>17.0061682946383</v>
       </c>
-      <c r="M11" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>3.59218272308514</v>
       </c>
-      <c r="O11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>4.6758685801</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -1339,28 +1339,28 @@
         <v>3.5921827231</v>
       </c>
       <c r="K12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L12" t="n">
         <v>6.4</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="P12" t="n">
         <v>7.489335770871429</v>
       </c>
-      <c r="M12" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>-8.43635059795214</v>
       </c>
-      <c r="O12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>6.2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-1.2</v>
       </c>
     </row>
     <row r="13">
@@ -1397,28 +1397,28 @@
         <v>-8.436350597999999</v>
       </c>
       <c r="K13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L13" t="n">
         <v>9.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-5.84</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="P13" t="n">
         <v>-0.8</v>
       </c>
-      <c r="M13" t="n">
-        <v>-5.84</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
         <v>-5.26390983515354</v>
       </c>
-      <c r="O13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>4.3068260112</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-2.3</v>
       </c>
     </row>
     <row r="14">
@@ -1455,28 +1455,28 @@
         <v>-5.2639098352</v>
       </c>
       <c r="K14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L14" t="n">
         <v>8.1</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P14" t="n">
         <v>-6.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
         <v>-5.756351703489321</v>
       </c>
-      <c r="O14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>4.130407895299999</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="15">
@@ -1513,28 +1513,28 @@
         <v>-5.7563517035</v>
       </c>
       <c r="K15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L15" t="n">
         <v>-0.282352941176471</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>9.03529411764706</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P15" t="n">
         <v>2.30167941493155</v>
       </c>
-      <c r="M15" t="n">
-        <v>-18.2</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
         <v>-20.495581243508</v>
       </c>
-      <c r="O15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>9.03529411764706</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>4.0103365511</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="16">
@@ -1571,28 +1571,28 @@
         <v>-20.4955812435</v>
       </c>
       <c r="K16" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="L16" t="n">
         <v>-1.12</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P16" t="n">
         <v>-10.4930835081354</v>
       </c>
-      <c r="M16" t="n">
-        <v>-16.7</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
         <v>-21.0865337903781</v>
       </c>
-      <c r="O16" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="P16" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>1.6883986243</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -1629,28 +1629,28 @@
         <v>-21.0865337904</v>
       </c>
       <c r="K17" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="P17" t="n">
         <v>-11.7</v>
       </c>
-      <c r="M17" t="n">
-        <v>-12.7</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
         <v>-27.5262454367667</v>
       </c>
-      <c r="O17" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>2.3057043359</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="18">
@@ -1687,28 +1687,28 @@
         <v>-27.5262454368</v>
       </c>
       <c r="K18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L18" t="n">
         <v>-0.8</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="P18" t="n">
         <v>-9.4</v>
       </c>
-      <c r="M18" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="Q18" t="n">
         <v>-30.7160699519731</v>
       </c>
-      <c r="O18" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>3.2722226516</v>
-      </c>
-      <c r="R18" t="n">
-        <v>-3.2</v>
       </c>
     </row>
     <row r="19">
@@ -1745,28 +1745,28 @@
         <v>-30.716069952</v>
       </c>
       <c r="K19" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="L19" t="n">
         <v>-22.4</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-36.8942837512</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="P19" t="n">
         <v>-41.9</v>
       </c>
-      <c r="M19" t="n">
-        <v>-36.8942837512</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="Q19" t="n">
         <v>-40.3194728030394</v>
       </c>
-      <c r="O19" t="n">
-        <v>-26.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-25.4</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>-20.3815217801</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-26.7</v>
       </c>
     </row>
     <row r="20">
@@ -1803,28 +1803,28 @@
         <v>-40.32</v>
       </c>
       <c r="K20" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="L20" t="n">
         <v>-9.1</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-21</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="P20" t="n">
         <v>-22.8</v>
       </c>
-      <c r="M20" t="n">
-        <v>-21</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="Q20" t="n">
         <v>-34.4223148285766</v>
       </c>
-      <c r="O20" t="n">
-        <v>-10.6</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>-7.6430295985</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-16.7</v>
       </c>
     </row>
     <row r="21">
@@ -1857,28 +1857,28 @@
         <v>-34.4223148286</v>
       </c>
       <c r="K21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L21" t="n">
         <v>-2.2</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="P21" t="n">
         <v>-14.7</v>
       </c>
-      <c r="M21" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="Q21" t="n">
         <v>-29.0594388897689</v>
       </c>
-      <c r="O21" t="n">
-        <v>-4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>-0.6550534889</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-10.3</v>
       </c>
     </row>
     <row r="22">
@@ -1911,28 +1911,28 @@
         <v>-29.0594388898</v>
       </c>
       <c r="K22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L22" t="n">
         <v>3.4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="P22" t="n">
         <v>-12.9</v>
       </c>
-      <c r="M22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="Q22" t="n">
         <v>-12.2080991666</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P22" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>2.8210480834</v>
-      </c>
-      <c r="R22" t="n">
-        <v>-4.2</v>
       </c>
     </row>
     <row r="23">
